--- a/entwurf/treff.xlsx
+++ b/entwurf/treff.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t xml:space="preserve">treff_client</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t xml:space="preserve">PollLockedException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequestHandlerAlreadyRan</t>
   </si>
   <si>
     <t xml:space="preserve">interfaces</t>
@@ -431,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -537,6 +540,27 @@
       <bottom style="thick"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -563,7 +587,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -650,6 +674,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1673,8 +1709,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1702,37 +1738,37 @@
       <c r="B4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,7 +1777,7 @@
       <c r="C8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="24" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="7"/>
@@ -1750,7 +1786,7 @@
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="7"/>
@@ -1759,7 +1795,7 @@
       <c r="A10" s="7"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="24" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="7"/>
@@ -1768,7 +1804,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="24" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="7"/>
@@ -1777,7 +1813,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="24" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="7"/>
@@ -1786,7 +1822,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="24" t="s">
         <v>101</v>
       </c>
       <c r="E13" s="7"/>
@@ -1795,8 +1831,8 @@
       <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="8" t="s">
-        <v>93</v>
+      <c r="D14" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1804,10 +1840,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="6" t="s">
         <v>103</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -1815,8 +1851,8 @@
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="9" t="s">
-        <v>104</v>
+      <c r="D16" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -1824,8 +1860,8 @@
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="9" t="s">
-        <v>105</v>
+      <c r="D17" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -1833,8 +1869,8 @@
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="9" t="s">
-        <v>69</v>
+      <c r="D18" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1842,8 +1878,8 @@
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
+      <c r="D19" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1851,8 +1887,8 @@
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="9" t="s">
-        <v>72</v>
+      <c r="D20" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -1860,8 +1896,8 @@
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="9" t="s">
-        <v>106</v>
+      <c r="D21" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="E21" s="7"/>
     </row>
@@ -1869,28 +1905,28 @@
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="9" t="s">
-        <v>107</v>
+      <c r="D22" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="8" t="s">
-        <v>108</v>
+      <c r="C23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>110</v>
+      <c r="C24" s="5"/>
+      <c r="D24" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="E24" s="7"/>
     </row>
@@ -1898,8 +1934,8 @@
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="9" t="s">
-        <v>111</v>
+      <c r="D25" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="E25" s="7"/>
     </row>
@@ -1907,8 +1943,8 @@
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="9" t="s">
-        <v>112</v>
+      <c r="D26" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="E26" s="7"/>
     </row>
@@ -1916,8 +1952,8 @@
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="9" t="s">
-        <v>113</v>
+      <c r="D27" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="E27" s="7"/>
     </row>
@@ -1925,8 +1961,8 @@
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="9" t="s">
-        <v>114</v>
+      <c r="D28" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="E28" s="7"/>
     </row>
@@ -1934,8 +1970,8 @@
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="9" t="s">
-        <v>115</v>
+      <c r="D29" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="E29" s="7"/>
     </row>
@@ -1943,40 +1979,32 @@
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="9" t="s">
-        <v>116</v>
+      <c r="D30" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8" t="s">
-        <v>117</v>
+      <c r="C31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>119</v>
+      <c r="C32" s="10"/>
+      <c r="D32" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2009,15 +2037,15 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B4:B33"/>
+    <mergeCell ref="B4:B32"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C15:C23"/>
-    <mergeCell ref="C24:C31"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C31:C32"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
